--- a/kombinasi-parameter-2.xlsx
+++ b/kombinasi-parameter-2.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01246725489410942</v>
+        <v>0.01248736681467662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1221055723216436</v>
+        <v>0.1235402657152855</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01269138201254688</v>
+        <v>0.01236087083816528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1428672274293965</v>
+        <v>0.1426638274976652</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01269262779044778</v>
+        <v>0.01230082387895617</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1318599924649278</v>
+        <v>0.1382217066336985</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0124043744760693</v>
+        <v>0.0125707010547184</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1350923492892148</v>
+        <v>0.1190056607943692</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01252718976609511</v>
+        <v>0.01227980332882845</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1501894548331222</v>
+        <v>0.1182354750902685</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01242151941262084</v>
+        <v>0.01256698949823845</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1487086958264651</v>
+        <v>0.1334463037448387</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01240474724351135</v>
+        <v>0.01251384584641416</v>
       </c>
       <c r="D8" t="n">
-        <v>0.124681342546254</v>
+        <v>0.1185745193737827</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01252944338811587</v>
+        <v>0.01245919640545976</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1462536202105757</v>
+        <v>0.1422511594344492</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01240260028981999</v>
+        <v>0.0124277009641471</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1581546666279231</v>
+        <v>0.1402608384824779</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01255700820163913</v>
+        <v>0.01256524723928983</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1223915416288049</v>
+        <v>0.1204108693828321</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01249610551007806</v>
+        <v>0.01234438310836582</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1287123634390635</v>
+        <v>0.1460556225621537</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01266236298347581</v>
+        <v>0.01241027667786773</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1195795974911076</v>
+        <v>0.1402368690461329</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0003471854716947634</v>
+        <v>0.0003637301931731811</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002851395376587976</v>
+        <v>0.002681800891479401</v>
       </c>
     </row>
     <row r="15">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0003450778687742781</v>
+        <v>0.000367607966413058</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00120344182336065</v>
+        <v>0.001496663246916173</v>
       </c>
     </row>
     <row r="16">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0003028679041077115</v>
+        <v>0.0003607116204252696</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001712726620472457</v>
+        <v>0.001439586541717489</v>
       </c>
     </row>
     <row r="17">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0003415010466833586</v>
+        <v>0.0003867408863511192</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001589374953230256</v>
+        <v>0.001291145524329008</v>
       </c>
     </row>
     <row r="18">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0003032348487902535</v>
+        <v>0.0003516534311467246</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0009759433347451156</v>
+        <v>0.001194557803364037</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000301779510452546</v>
+        <v>0.0003624183523679178</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001020752270674103</v>
+        <v>0.001116861853978201</v>
       </c>
     </row>
     <row r="20">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0003285268273791426</v>
+        <v>0.0003428303792894091</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001429344222829869</v>
+        <v>0.001368020201892885</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0003336338319956032</v>
+        <v>0.0003297444522577778</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001055053640188879</v>
+        <v>0.001147022741936045</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0002927285892576336</v>
+        <v>0.0003290655037981445</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0009623802791681294</v>
+        <v>0.00112544343334763</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0003220865786815547</v>
+        <v>0.0003525430642782825</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001193847593353832</v>
+        <v>0.001148376729473319</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0003558151441473157</v>
+        <v>0.0003526428387873513</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001246670493058707</v>
+        <v>0.001128038984710631</v>
       </c>
     </row>
     <row r="25">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0002999414718942717</v>
+        <v>0.0003293640935500088</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001014551483509322</v>
+        <v>0.001159708371245596</v>
       </c>
     </row>
   </sheetData>

--- a/kombinasi-parameter-2.xlsx
+++ b/kombinasi-parameter-2.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01248736681467662</v>
+        <v>0.01247955393046141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1235402657152855</v>
+        <v>0.120659738779068</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01236087083816528</v>
+        <v>0.01232366915792227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1426638274976652</v>
+        <v>0.142146959900856</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01230082387895617</v>
+        <v>0.0123893516138196</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1382217066336985</v>
+        <v>0.1385724097490311</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0125707010547184</v>
+        <v>0.01267671957612038</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1190056607943692</v>
+        <v>0.1151520982384682</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01227980332882845</v>
+        <v>0.01232695393264294</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1182354750902685</v>
+        <v>0.1380896121263504</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01256698949823845</v>
+        <v>0.0124165415763855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1334463037448387</v>
+        <v>0.1525440961122513</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01251384584641416</v>
+        <v>0.01261116284877062</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1185745193737827</v>
+        <v>0.1132794991135597</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01245919640545976</v>
+        <v>0.0123324329033494</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1422511594344492</v>
+        <v>0.1410080939531326</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0124277009641471</v>
+        <v>0.0124000022187829</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1402608384824779</v>
+        <v>0.1358341127634048</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01256524723928983</v>
+        <v>0.01297278515994549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1204108693828321</v>
+        <v>0.1037214770913124</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01234438310836582</v>
+        <v>0.01287826430052519</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1460556225621537</v>
+        <v>0.1578280478715897</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01241027667786773</v>
+        <v>0.01280444208532572</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1402368690461329</v>
+        <v>0.1216391995549202</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0003637301931731811</v>
+        <v>0.0003683568211272359</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002681800891479401</v>
+        <v>0.001829495187848806</v>
       </c>
     </row>
     <row r="15">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.000367607966413058</v>
+        <v>0.0003507507790345699</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001496663246916173</v>
+        <v>0.001794415176846087</v>
       </c>
     </row>
     <row r="16">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0003607116204252696</v>
+        <v>0.0003745111171156168</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001439586541717489</v>
+        <v>0.001608221442438662</v>
       </c>
     </row>
     <row r="17">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0003867408863511192</v>
+        <v>0.0003623823577072471</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001291145524329008</v>
+        <v>0.001465445384383202</v>
       </c>
     </row>
     <row r="18">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0003516534311467246</v>
+        <v>0.0003491336246952415</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001194557803364037</v>
+        <v>0.001293992390856147</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0003624183523679178</v>
+        <v>0.0003315248759463429</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001116861853978201</v>
+        <v>0.001183239510282874</v>
       </c>
     </row>
     <row r="20">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0003428303792894091</v>
+        <v>0.0003770145995076746</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001368020201892885</v>
+        <v>0.001308276550844312</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0003297444522577778</v>
+        <v>0.0003321681870147586</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001147022741936045</v>
+        <v>0.001153152203187346</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0003290655037981445</v>
+        <v>0.0003390458005014807</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00112544343334763</v>
+        <v>0.001113476930186152</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0003525430642782825</v>
+        <v>0.000361653248546645</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001148376729473319</v>
+        <v>0.001464926754124463</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0003526428387873513</v>
+        <v>0.0004028634284622967</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001128038984710631</v>
+        <v>0.00119754474144429</v>
       </c>
     </row>
     <row r="25">
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0003293640935500088</v>
+        <v>0.0003321173135191202</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001159708371245596</v>
+        <v>0.00109567551407963</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>